--- a/medicine/Enfance/Florence_Jenner-Metz/Florence_Jenner-Metz.xlsx
+++ b/medicine/Enfance/Florence_Jenner-Metz/Florence_Jenner-Metz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florence Jenner-Metz est une autrice française né à Strasbourg le 26 janvier 1972[1]. Elle écrit principalement des romans, des albums et des kamishibais destinés à la jeunesse[1],[2],[3],[4],[5],[6]. Certains de ses ouvrages ont été sélectionnés ou ont obtenus des prix nationaux[7]. Elle publie notamment chez Alice Jeunesse dans la collection deuzio[8],[9],[10].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Jenner-Metz est une autrice française né à Strasbourg le 26 janvier 1972. Elle écrit principalement des romans, des albums et des kamishibais destinés à la jeunesse. Certains de ses ouvrages ont été sélectionnés ou ont obtenus des prix nationaux. Elle publie notamment chez Alice Jeunesse dans la collection deuzio.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florence Jenner-Metz est née en Alsace où elle vit toujours[1].
-Elle fait des études de lettres à Nancy (Khâgne/Hypokhâgne) puis à Strasbourg (DEA de lettres)[1].
-Elle passe le CRPE en 1994 et enseigne en tant que professeur des écoles de la maternelle en SEGPA. À partir de 2001, elle devient formatrice en français à l’IUFM de Strasbourg qui devient l’INSPE en 2019[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Jenner-Metz est née en Alsace où elle vit toujours.
+Elle fait des études de lettres à Nancy (Khâgne/Hypokhâgne) puis à Strasbourg (DEA de lettres).
+Elle passe le CRPE en 1994 et enseigne en tant que professeur des écoles de la maternelle en SEGPA. À partir de 2001, elle devient formatrice en français à l’IUFM de Strasbourg qui devient l’INSPE en 2019.
 Elle publie son premier album Le bois des fables aux éditions Callicéphale en 2001.
 Depuis 2019, elle collabore à des projets d’animations avec le studio de projection Ejt-labo.
 Elle est aussi l’autrice et co-autrice d’ouvrages de pédagogie et de recherche aux éditions Hatier et Belin.
@@ -547,9 +561,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses œuvres ont fait l'objet de critiques dans des sites spécialisés en littérature jeunesse : notamment ses albums Le bois des Fables[11], Je suis un loup[12], Lili la libellule[13], M comme Max[14] et Un instant de silence[15],[16],[17],[18], ainsi que ses romans Interdit[19], Pour sauver Cusumbo[20], Pas de merguez pour les sorcières[21], De bien étranges disparitions[22],[23], La fabuleuse odyssée des naufragés du non moins fabuleux le Blue sea[24], Il faut sauver la sorcière[25],[26] , Histoires trop stylées[27], Qui en veut au maitre verrier ?[28]. Son kamishibai Les trois zouloulais,  ainsi que son œuvre numérique À l’heure du déjeuner, ont également été remarqués par la critique[29],[30].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses œuvres ont fait l'objet de critiques dans des sites spécialisés en littérature jeunesse : notamment ses albums Le bois des Fables, Je suis un loup, Lili la libellule, M comme Max et Un instant de silence ainsi que ses romans Interdit, Pour sauver Cusumbo, Pas de merguez pour les sorcières, De bien étranges disparitions La fabuleuse odyssée des naufragés du non moins fabuleux le Blue sea, Il faut sauver la sorcière, , Histoires trop stylées, Qui en veut au maitre verrier ?. Son kamishibai Les trois zouloulais,  ainsi que son œuvre numérique À l’heure du déjeuner, ont également été remarqués par la critique,.
 </t>
         </is>
       </c>
@@ -580,15 +596,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ouvrages pédagogiques et de recherche
-Lire des œuvres littéraires, les comprendre et les mettre en réseau, Belin éditions, 2008, en collaboration avec I. Lebrat et C. Millecamps
-Bien lire pour bien comprendre, Hatier éditions, 2016, en collaboration avec P. Bézu et MA Jehl
-Ouvrages collectifs
-The Interconnections of the Only Connect Project (Translating, Mediating and Sharing Children’s Literature throughout Europe), sous la direction de B. Bentley et P. Torremocha, CEPLI editions, Murcia, 2006
+          <t>Ouvrages pédagogiques et de recherche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lire des œuvres littéraires, les comprendre et les mettre en réseau, Belin éditions, 2008, en collaboration avec I. Lebrat et C. Millecamps
+Bien lire pour bien comprendre, Hatier éditions, 2016, en collaboration avec P. Bézu et MA Jehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Interconnections of the Only Connect Project (Translating, Mediating and Sharing Children’s Literature throughout Europe), sous la direction de B. Bentley et P. Torremocha, CEPLI editions, Murcia, 2006
 Enseigner la littérature de jeunesse, culture(s), valeurs et didactique en question, CRDP Alsace, 2008
-Contre l’innocence, sous la direction de B. Bennert / P. Clermont, Peter Lang éditions, Frankfurt, 2011
-Albums
-Le Bois des fables, Callicéphale éditions, 2001
+Contre l’innocence, sous la direction de B. Bennert / P. Clermont, Peter Lang éditions, Frankfurt, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Bois des fables, Callicéphale éditions, 2001
 Je suis un loup, Callicéphale éditions, 2002
 Indha, Bilboquet, 2003
 Cric crac… dans mon estomac, Bilboquet, 2004
@@ -606,9 +695,43 @@
 Le Sens de la vie, Le grand Jardin, 2017
 Des idées plein la tête, Le grand jardin, 2017
 La Chasse aux canards et aux moustiques, Le grand Jardin, 2019
-Un instant de silence, Alice Jeunesse, 2022
-Romans
-Une souris verte et autres délires, Alice Jeunesse, 2008
+Un instant de silence, Alice Jeunesse, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Une souris verte et autres délires, Alice Jeunesse, 2008
 Les Aventures de Mister Bulok, Alice Jeunesse, 2009
 Interdit, Alice éditions, 2011
 Pour sauver Cusumbo, Oskar éditions, 2014
@@ -622,76 +745,180 @@
 Histoires trop stylées, 2021(réédition du roman: Une souris verte et autres délires, Alice Jeunesse, 2008)
 Qui en veut au maitre verrier? La Nuée bleue, 2021
 Course contre le temps, Alice Jeunesse, 2021
-À l’école des dinosaures, Le verger des Hespérides, 2023
-Kamishibai
-Les Trois zouloulais, Callicéphale éditions, 2006
+À l’école des dinosaures, Le verger des Hespérides, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kamishibai</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Trois zouloulais, Callicéphale éditions, 2006
 Jao, le caméléon, Callicéphale éditions, 2008
 Raconte-moi les saisons, Callicéphale éditions, 2011
 À l’heure du déjeuner, Callicéphale éditions, 2013
 La Pêche à la ligne, Callicéphale éditions, 2014
 Le Fil, Callicéphale éditions, 2017
-La Mouche au ventre rebondi, Callicéphale éditions, 2021
-Réécritures
-Les Musiciens de Brême, Callicéphale éditions, 2008
-Le Petit Poisson d’or, Callicéphale éditions, 2008
-Production "animations"
-À l’heure du déjeuner, Promenons-nous dans les bois, studio EJT-labo, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Florence_Jenner-Metz</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Florence_Jenner-Metz</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+La Mouche au ventre rebondi, Callicéphale éditions, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Réécritures</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les Musiciens de Brême, Callicéphale éditions, 2008
+Le Petit Poisson d’or, Callicéphale éditions, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Production "animations"</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>À l’heure du déjeuner, Promenons-nous dans les bois, studio EJT-labo, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Jenner-Metz</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2002 : Sélection prix des P'tits lecteurs (pour Je suis un loup)[7]
-2009 : Sélection pour le prix Goya (pour Une souris verte et autres délires)[7]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2002 : Sélection prix des P'tits lecteurs (pour Je suis un loup)
+2009 : Sélection pour le prix Goya (pour Une souris verte et autres délires)
 2012 :
-Sélection pour le Prix Biblio Défi de Herblay (pour Interdit)[7]
-Sélection 2012-13 Romans Jeunes 10 ans et + des bibliothèques de Brest (pour Interdit)[7]
-Coup de cœur de "Escapades" dans sa sélection 2012-13 des + 10 ans (pour Interdit)[7]
+Sélection pour le Prix Biblio Défi de Herblay (pour Interdit)
+Sélection 2012-13 Romans Jeunes 10 ans et + des bibliothèques de Brest (pour Interdit)
+Coup de cœur de "Escapades" dans sa sélection 2012-13 des + 10 ans (pour Interdit)
 Prix des CM2 de la ville de Lagarde
 2013 :
-Lauréat du Prix de la ville de La Garde (pour Interdit)[7]
-Prix des CM2 de la ville de La Garde (pour Interdit)[7]
+Lauréat du Prix de la ville de La Garde (pour Interdit)
+Prix des CM2 de la ville de La Garde (pour Interdit)
 2015 :
 Sélection pour le prix Chapitre Nature (pour Pour sauver Cusumbo)
-2e Prix Passerelle du Limousin (pour Le dernier monde)[7]
-Sélection pour La Bataille des livres 2015-2016 (pour Le dernier monde)[31]
+2e Prix Passerelle du Limousin (pour Le dernier monde)
+Sélection pour La Bataille des livres 2015-2016 (pour Le dernier monde)
 2016 :
-Sélection pour le Grand Prix des Jeunes lecteurs de Casablanca (pour l'été des défis)[7]
+Sélection pour le Grand Prix des Jeunes lecteurs de Casablanca (pour l'été des défis)
 Sélection pour le Prix de l’encre d’or (pour l'été des défis)
-2019 : Sélection pour le Prix Escapade (pour De bien étranges disparitions)[7]
+2019 : Sélection pour le Prix Escapade (pour De bien étranges disparitions)
 2020 :
 Sélection pour le prix Goya (pour La cuisine tourne au vinaigre)
 Sélection pour le prix littéraire des 4 saisons à lire (pour La cuisine tourne au vinaigre)
 Sélection pour le prix La vache qui lit (pour La cuisine tourne au vinaigre)
-Sélection pour la Bataille des Livres, 2020-2021(pour La cuisine tourne au vinaigre)[31]
+Sélection pour la Bataille des Livres, 2020-2021(pour La cuisine tourne au vinaigre)
 2021 :
 Sélection pour le prix des Embouquineurs (pour La cuisine tourne au vinaigre)
 2022 :
-Sélection pour la Bataille des livres, 2022-2023 (pour Course contre le temps)[32]
+Sélection pour la Bataille des livres, 2022-2023 (pour Course contre le temps)
 2023 :
 Sélection pour le prix Goya (pour Course contre le temps)
 Sélection pour le prix Lire et faire lire, 2023 (pour Un instant de silence)</t>
